--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -335,11 +335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="TEST_SHEET" sheetId="5" r:id="rId1"/>
+    <sheet name="TEXEL_SHEET_TRACKER" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,22 +26,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>TEST_SHEET</t>
+  </si>
+  <si>
+    <t>first sheet added</t>
+  </si>
+  <si>
+    <t>var_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +385,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sheet_name</t>
   </si>
@@ -47,10 +47,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>dollar</t>
   </si>
 </sst>
 </file>
@@ -386,7 +383,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,7 +397,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,17 +464,6 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SHEET" sheetId="5" r:id="rId1"/>
     <sheet name="TEXEL_SHEET_TRACKER" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId3"/>
     <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="YO">TEST_STANDARD_ROW!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sheet_name</t>
   </si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>dollar</t>
+  </si>
+  <si>
+    <t>kwh</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,7 +403,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,6 +470,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SHEET" sheetId="5" r:id="rId1"/>
-    <sheet name="TEXEL_SHEET_TRACKER" sheetId="4" r:id="rId2"/>
-    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId3"/>
-    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId4"/>
+    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId2"/>
+    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="YO">TEST_STANDARD_ROW!$A:$A</definedName>
@@ -30,19 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
-    <t>TEST_SHEET</t>
-  </si>
-  <si>
-    <t>first sheet added</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>var_name</t>
   </si>
@@ -60,33 +47,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,11 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,46 +371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,7 +383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -460,15 +395,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -476,7 +411,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>100</v>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,15 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST_SHEET" sheetId="5" r:id="rId1"/>
-    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId2"/>
-    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId3"/>
+    <sheet name="TEST_SHEET_TXL_ROW" sheetId="11" r:id="rId1"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="10" r:id="rId2"/>
+    <sheet name="TEST_SHEET" sheetId="5" r:id="rId3"/>
+    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId4"/>
+    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="YO">TEST_STANDARD_ROW!$A:$A</definedName>
+    <definedName name="TEST_NAME_FOR_NBK">TEST_SHEET_TXL_ROW!$I$13</definedName>
+    <definedName name="TEST_SCALAR_INPUT__dollar">TEST_SCALAR_INPUT!$B$2</definedName>
+    <definedName name="TEST_SCALAR_INPUT__kwh">TEST_SCALAR_INPUT!$B$3</definedName>
+    <definedName name="TESTOTHER_NAME">TEST_SHEET_TXL_ROW!$O$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>var_name</t>
   </si>
@@ -41,6 +46,39 @@
   </si>
   <si>
     <t>kwh</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>sheet_type</t>
+  </si>
+  <si>
+    <t>TEST_SCALAR_INPUT</t>
+  </si>
+  <si>
+    <t>A Test worksheet with scalar inputs</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -55,12 +93,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -371,10 +416,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="1.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -383,12 +471,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SHEET_TXL_ROW" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>var_name</t>
   </si>
@@ -57,6 +57,9 @@
     <t>sheet_type</t>
   </si>
   <si>
+    <t>TEST_STANDARD_ROW</t>
+  </si>
+  <si>
     <t>TEST_SCALAR_INPUT</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>Standard Row tab for testing</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,15 +422,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="1.875" bestFit="1" customWidth="1"/>
@@ -443,13 +449,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -475,18 +492,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -494,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -502,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -510,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -518,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -530,11 +547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,20 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST_SHEET_TXL_ROW" sheetId="11" r:id="rId1"/>
-    <sheet name="TXL_SHEET_TRACKER" sheetId="10" r:id="rId2"/>
-    <sheet name="TEST_SHEET" sheetId="5" r:id="rId3"/>
-    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId4"/>
-    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId5"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="13" r:id="rId1"/>
+    <sheet name="TEST_SHEET" sheetId="5" r:id="rId2"/>
+    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="TEST_NAME_FOR_NBK">TEST_SHEET_TXL_ROW!$I$13</definedName>
     <definedName name="TEST_SCALAR_INPUT__dollar">TEST_SCALAR_INPUT!$B$2</definedName>
     <definedName name="TEST_SCALAR_INPUT__kwh">TEST_SCALAR_INPUT!$B$3</definedName>
-    <definedName name="TESTOTHER_NAME">TEST_SHEET_TXL_ROW!$O$12</definedName>
+    <definedName name="TEST_STANDARD_ROW__index">TEST_STANDARD_ROW!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>var_name</t>
   </si>
@@ -60,31 +58,13 @@
     <t>TEST_STANDARD_ROW</t>
   </si>
   <si>
-    <t>TEST_SCALAR_INPUT</t>
-  </si>
-  <si>
-    <t>A Test worksheet with scalar inputs</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>Standard Row tab for testing</t>
+    <t>sheet_index</t>
+  </si>
+  <si>
+    <t>Sheet to test standard row sheet</t>
   </si>
 </sst>
 </file>
@@ -408,10 +388,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f ca="1">_xlfn.SHEET(TEST_STANDARD_ROW!$A$1)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,122 +450,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="1.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -543,12 +490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="TXL_SHEET_TRACKER" sheetId="13" r:id="rId1"/>
-    <sheet name="TEST_SHEET" sheetId="5" r:id="rId2"/>
-    <sheet name="TEST_STANDARD_ROW" sheetId="3" r:id="rId3"/>
-    <sheet name="TEST_SCALAR_INPUT" sheetId="9" r:id="rId4"/>
+    <sheet name="TEST_SCALAR" sheetId="9" r:id="rId2"/>
+    <sheet name="TEST_SHEET" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="TEST_SCALAR_INPUT__dollar">TEST_SCALAR_INPUT!$B$2</definedName>
-    <definedName name="TEST_SCALAR_INPUT__kwh">TEST_SCALAR_INPUT!$B$3</definedName>
-    <definedName name="TEST_STANDARD_ROW__index">TEST_STANDARD_ROW!$A:$A</definedName>
+    <definedName name="TEST_SCALAR__dollar">TEST_SCALAR!$B$2</definedName>
+    <definedName name="TEST_SCALAR__kwh">TEST_SCALAR!$B$3</definedName>
+    <definedName name="TEST_SCALAR__value">TEST_SCALAR!$B:$B</definedName>
+    <definedName name="TEST_SCALAR__var_name">TEST_SCALAR!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>var_name</t>
   </si>
@@ -55,16 +55,13 @@
     <t>sheet_type</t>
   </si>
   <si>
-    <t>TEST_STANDARD_ROW</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>sheet_index</t>
   </si>
   <si>
     <t>Sheet to test standard row sheet</t>
+  </si>
+  <si>
+    <t>TEST_SCALAR</t>
   </si>
 </sst>
 </file>
@@ -391,12 +388,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
@@ -413,22 +410,21 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f ca="1">_xlfn.SHEET(TEST_STANDARD_ROW!$A$1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -438,64 +434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,4 +472,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TXL_SHEET_TRACKER" sheetId="13" r:id="rId1"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId1"/>
     <sheet name="TEST_SCALAR" sheetId="9" r:id="rId2"/>
-    <sheet name="TEST_SHEET" sheetId="5" r:id="rId3"/>
+    <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="TEST_SCALAR__dollar">TEST_SCALAR!$B$2</definedName>
-    <definedName name="TEST_SCALAR__kwh">TEST_SCALAR!$B$3</definedName>
+    <definedName name="TEST_SCALAR__dollar">TEST_SCALAR!$B$3</definedName>
+    <definedName name="TEST_SCALAR__kwh">TEST_SCALAR!$B$2</definedName>
     <definedName name="TEST_SCALAR__value">TEST_SCALAR!$B:$B</definedName>
     <definedName name="TEST_SCALAR__var_name">TEST_SCALAR!$A:$A</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>var_name</t>
   </si>
@@ -62,21 +62,42 @@
   </si>
   <si>
     <t>TEST_SCALAR</t>
+  </si>
+  <si>
+    <t>test_index_a</t>
+  </si>
+  <si>
+    <t>test_index_b</t>
+  </si>
+  <si>
+    <t>first_calc</t>
+  </si>
+  <si>
+    <t>first_input</t>
+  </si>
+  <si>
+    <t>second_calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +107,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,9 +135,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,16 +429,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -414,17 +457,62 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f ca="1">_xlfn.SHEET(TEST_SCALAR!$A$1)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -432,58 +520,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="2">
+        <f>A2*B2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E2" s="2">
+        <f>C2+D2</f>
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,18 +9,50 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId1"/>
+    <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId1"/>
     <sheet name="TEST_SCALAR" sheetId="9" r:id="rId2"/>
-    <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId3"/>
+    <sheet name="TEST_LONG_COLUMN_SHEET" sheetId="23" r:id="rId3"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="TEST_LONG_COLUMN_SHEET__a">TEST_LONG_COLUMN_SHEET!$A:$A</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__b">TEST_LONG_COLUMN_SHEET!$B:$B</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__c">TEST_LONG_COLUMN_SHEET!$C:$C</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__d">TEST_LONG_COLUMN_SHEET!$D:$D</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__e">TEST_LONG_COLUMN_SHEET!$E:$E</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__f">TEST_LONG_COLUMN_SHEET!$F:$F</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__g">TEST_LONG_COLUMN_SHEET!$G:$G</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__h">TEST_LONG_COLUMN_SHEET!$H:$H</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__i">TEST_LONG_COLUMN_SHEET!$I:$I</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__j">TEST_LONG_COLUMN_SHEET!$J:$J</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__k">TEST_LONG_COLUMN_SHEET!$K:$K</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__l">TEST_LONG_COLUMN_SHEET!$L:$L</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__m">TEST_LONG_COLUMN_SHEET!$M:$M</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__n">TEST_LONG_COLUMN_SHEET!$N:$N</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__o">TEST_LONG_COLUMN_SHEET!$O:$O</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__p">TEST_LONG_COLUMN_SHEET!$P:$P</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__q">TEST_LONG_COLUMN_SHEET!$Q:$Q</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__r">TEST_LONG_COLUMN_SHEET!$R:$R</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__s">TEST_LONG_COLUMN_SHEET!$S:$S</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__t">TEST_LONG_COLUMN_SHEET!$T:$T</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__u">TEST_LONG_COLUMN_SHEET!$U:$U</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__v">TEST_LONG_COLUMN_SHEET!$V:$V</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__w">TEST_LONG_COLUMN_SHEET!$W:$W</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__x">TEST_LONG_COLUMN_SHEET!$X:$X</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__y">TEST_LONG_COLUMN_SHEET!$Y:$Y</definedName>
+    <definedName name="TEST_LONG_COLUMN_SHEET__z">TEST_LONG_COLUMN_SHEET!$Z:$Z</definedName>
     <definedName name="TEST_SCALAR__dollar">TEST_SCALAR!$B$3</definedName>
     <definedName name="TEST_SCALAR__kwh">TEST_SCALAR!$B$2</definedName>
     <definedName name="TEST_SCALAR__value">TEST_SCALAR!$B:$B</definedName>
     <definedName name="TEST_SCALAR__var_name">TEST_SCALAR!$A:$A</definedName>
+    <definedName name="TEST_SHEET_FOR_COLORING__first_calc">TEST_SHEET_FOR_COLORING!$C:$C</definedName>
+    <definedName name="TEST_SHEET_FOR_COLORING__first_input">TEST_SHEET_FOR_COLORING!$D:$D</definedName>
+    <definedName name="TEST_SHEET_FOR_COLORING__second_calc">TEST_SHEET_FOR_COLORING!$E:$E</definedName>
+    <definedName name="TEST_SHEET_FOR_COLORING__test_index_a">TEST_SHEET_FOR_COLORING!$A:$A</definedName>
+    <definedName name="TEST_SHEET_FOR_COLORING__test_index_b">TEST_SHEET_FOR_COLORING!$B:$B</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>var_name</t>
   </si>
@@ -77,6 +109,96 @@
   </si>
   <si>
     <t>second_calc</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_FOR_COLORING</t>
+  </si>
+  <si>
+    <t>Sheet to test coloring of column cals</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>TEST_LONG_COLUMN_SHEET</t>
+  </si>
+  <si>
+    <t>Column sheet with more columns to color</t>
   </si>
 </sst>
 </file>
@@ -135,8 +257,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,53 +550,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f ca="1">_xlfn.SHEET(TEST_SCALAR!$A$1)</f>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <f>A2*B2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2+D2</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -482,36 +611,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
     </row>
@@ -522,58 +651,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <v>19</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+      <c r="W2">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f ca="1">_xlfn.SHEET(TEST_SCALAR!$A$1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <f>A2*B2</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
+        <f ca="1">_xlfn.SHEET(TEST_SHEET_FOR_COLORING!$A$1)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2+D2</f>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f ca="1">_xlfn.SHEET(TEST_LONG_COLUMN_SHEET!$A$1)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -9,45 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId1"/>
-    <sheet name="TEST_SCALAR" sheetId="9" r:id="rId2"/>
-    <sheet name="TEST_LONG_COLUMN_SHEET" sheetId="23" r:id="rId3"/>
-    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId4"/>
+    <sheet name="TEST_SCALAR_LOLOL" sheetId="9" r:id="rId2"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="TEST_LONG_COLUMN_SHEET__a">TEST_LONG_COLUMN_SHEET!$A:$A</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__b">TEST_LONG_COLUMN_SHEET!$B:$B</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__c">TEST_LONG_COLUMN_SHEET!$C:$C</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__d">TEST_LONG_COLUMN_SHEET!$D:$D</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__e">TEST_LONG_COLUMN_SHEET!$E:$E</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__f">TEST_LONG_COLUMN_SHEET!$F:$F</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__g">TEST_LONG_COLUMN_SHEET!$G:$G</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__h">TEST_LONG_COLUMN_SHEET!$H:$H</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__i">TEST_LONG_COLUMN_SHEET!$I:$I</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__j">TEST_LONG_COLUMN_SHEET!$J:$J</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__k">TEST_LONG_COLUMN_SHEET!$K:$K</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__l">TEST_LONG_COLUMN_SHEET!$L:$L</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__m">TEST_LONG_COLUMN_SHEET!$M:$M</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__n">TEST_LONG_COLUMN_SHEET!$N:$N</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__o">TEST_LONG_COLUMN_SHEET!$O:$O</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__p">TEST_LONG_COLUMN_SHEET!$P:$P</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__q">TEST_LONG_COLUMN_SHEET!$Q:$Q</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__r">TEST_LONG_COLUMN_SHEET!$R:$R</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__s">TEST_LONG_COLUMN_SHEET!$S:$S</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__t">TEST_LONG_COLUMN_SHEET!$T:$T</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__u">TEST_LONG_COLUMN_SHEET!$U:$U</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__v">TEST_LONG_COLUMN_SHEET!$V:$V</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__w">TEST_LONG_COLUMN_SHEET!$W:$W</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__x">TEST_LONG_COLUMN_SHEET!$X:$X</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__y">TEST_LONG_COLUMN_SHEET!$Y:$Y</definedName>
-    <definedName name="TEST_LONG_COLUMN_SHEET__z">TEST_LONG_COLUMN_SHEET!$Z:$Z</definedName>
-    <definedName name="TEST_SCALAR__dollar">TEST_SCALAR!$B$3</definedName>
-    <definedName name="TEST_SCALAR__kwh">TEST_SCALAR!$B$2</definedName>
-    <definedName name="TEST_SCALAR__value">TEST_SCALAR!$B:$B</definedName>
-    <definedName name="TEST_SCALAR__var_name">TEST_SCALAR!$A:$A</definedName>
+    <definedName name="TEST_SCALAR__value">TEST_SCALAR_LOLOL!$B:$B</definedName>
+    <definedName name="TEST_SCALAR__var_name">TEST_SCALAR_LOLOL!$A:$A</definedName>
+    <definedName name="TEST_SCALAR_LOLOL__dollar">TEST_SCALAR_LOLOL!$B$3</definedName>
+    <definedName name="TEST_SCALAR_LOLOL__kwh">TEST_SCALAR_LOLOL!$B$2</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__first_calc">TEST_SHEET_FOR_COLORING!$C:$C</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__first_input">TEST_SHEET_FOR_COLORING!$D:$D</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__second_calc">TEST_SHEET_FOR_COLORING!$E:$E</definedName>
@@ -64,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>var_name</t>
   </si>
@@ -93,9 +66,6 @@
     <t>Sheet to test standard row sheet</t>
   </si>
   <si>
-    <t>TEST_SCALAR</t>
-  </si>
-  <si>
     <t>test_index_a</t>
   </si>
   <si>
@@ -117,88 +87,7 @@
     <t>Sheet to test coloring of column cals</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>TEST_LONG_COLUMN_SHEET</t>
-  </si>
-  <si>
-    <t>Column sheet with more columns to color</t>
+    <t>TEST_SCALAR_LOLOL</t>
   </si>
 </sst>
 </file>
@@ -219,7 +108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,25 +152,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFACBEE2"/>
+      <color rgb="FFC4DCEA"/>
+      <color rgb="FFD8E9F4"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,36 +452,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFBDD7EE"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,15 +509,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FFF8CBAD"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -621,10 +531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -651,213 +561,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>18</v>
-      </c>
-      <c r="S2">
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <v>20</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>22</v>
-      </c>
-      <c r="W2">
-        <v>23</v>
-      </c>
-      <c r="X2">
-        <v>24</v>
-      </c>
-      <c r="Y2">
-        <v>25</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -866,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f ca="1">_xlfn.SHEET(TEST_SCALAR!$A$1)</f>
+        <f ca="1">_xlfn.SHEET(TEST_SCALAR_LOLOL!$A$1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -883,21 +619,6 @@
       <c r="D3" s="3">
         <f ca="1">_xlfn.SHEET(TEST_SHEET_FOR_COLORING!$A$1)</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <f ca="1">_xlfn.SHEET(TEST_LONG_COLUMN_SHEET!$A$1)</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId1"/>
-    <sheet name="TEST_SCALAR_LOLOL" sheetId="9" r:id="rId2"/>
-    <sheet name="TXL_SHEET_TRACKER" sheetId="21" r:id="rId3"/>
+    <sheet name="TXL_SHEET_TRACKER" sheetId="27" r:id="rId1"/>
+    <sheet name="TEST_SHEET_FOR_COLORING" sheetId="22" r:id="rId2"/>
+    <sheet name="TEST_SCALAR" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="TEST_SCALAR__value">TEST_SCALAR_LOLOL!$B:$B</definedName>
-    <definedName name="TEST_SCALAR__var_name">TEST_SCALAR_LOLOL!$A:$A</definedName>
-    <definedName name="TEST_SCALAR_LOLOL__dollar">TEST_SCALAR_LOLOL!$B$3</definedName>
-    <definedName name="TEST_SCALAR_LOLOL__kwh">TEST_SCALAR_LOLOL!$B$2</definedName>
+    <definedName name="TEST_SCALAR__value">TEST_SCALAR!$B:$B</definedName>
+    <definedName name="TEST_SCALAR__var_name">TEST_SCALAR!$A:$A</definedName>
+    <definedName name="TEST_SCALAR_LOLOL__dollar">TEST_SCALAR!$B$3</definedName>
+    <definedName name="TEST_SCALAR_LOLOL__kwh">TEST_SCALAR!$B$2</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__first_calc">TEST_SHEET_FOR_COLORING!$C:$C</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__first_input">TEST_SHEET_FOR_COLORING!$D:$D</definedName>
     <definedName name="TEST_SHEET_FOR_COLORING__second_calc">TEST_SHEET_FOR_COLORING!$E:$E</definedName>
@@ -66,6 +66,9 @@
     <t>Sheet to test standard row sheet</t>
   </si>
   <si>
+    <t>TEST_SCALAR</t>
+  </si>
+  <si>
     <t>test_index_a</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
   </si>
   <si>
     <t>Sheet to test coloring of column cals</t>
-  </si>
-  <si>
-    <t>TEST_SCALAR_LOLOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +107,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEDF2F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +143,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF355185"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF2F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +181,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,13 +475,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FF355185"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f ca="1">_xlfn.SHEET(TEST_SCALAR!$A$1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <f ca="1">_xlfn.SHEET(TEST_SHEET_FOR_COLORING!$A$1)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFBDD7EE"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -473,19 +565,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -513,7 +605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFF8CBAD"/>
@@ -521,7 +613,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -557,72 +649,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <f ca="1">_xlfn.SHEET(TEST_SCALAR_LOLOL!$A$1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <f ca="1">_xlfn.SHEET(TEST_SHEET_FOR_COLORING!$A$1)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
